--- a/localization/lobes_aal.xlsx
+++ b/localization/lobes_aal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas/localization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C30D97-F298-B047-863A-D8C088ED1F8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD93E7F-5D3A-BA4B-9BB8-D48A469725A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{B37226BF-3536-EF4F-BD80-D4656ABF58A3}"/>
   </bookViews>
@@ -25,277 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
-  <si>
-    <t>{'Precentral_L'        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Precentral_R'        }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Sup_L'       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Sup_R'       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Sup_Orb_L'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Sup_Orb_R'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Mid_L'       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Mid_R'       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Mid_Orb_L'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Mid_Orb_R'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Inf_Oper_L'  }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Inf_Oper_R'  }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Inf_Tri_L'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Inf_Tri_R'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Inf_Orb_L'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Inf_Orb_R'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Rolandic_Oper_L'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Rolandic_Oper_R'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Supp_Motor_Area_L'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Supp_Motor_Area_R'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Olfactory_L'         }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Olfactory_R'         }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Sup_Medial_L'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Sup_Medial_R'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Med_Orb_L'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Frontal_Med_Orb_R'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Rectus_L'            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Rectus_R'            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Insula_L'            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Insula_R'            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Cingulum_Ant_L'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Cingulum_Ant_R'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Cingulum_Mid_L'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Cingulum_Mid_R'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Cingulum_Post_L'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Cingulum_Post_R'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Hippocampus_L'       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Hippocampus_R'       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'ParaHippocampal_L'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'ParaHippocampal_R'   }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Amygdala_L'          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Amygdala_R'          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Calcarine_L'         }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Calcarine_R'         }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Cuneus_L'            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Cuneus_R'            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Lingual_L'           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Lingual_R'           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Occipital_Sup_L'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Occipital_Sup_R'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Occipital_Mid_L'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Occipital_Mid_R'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Occipital_Inf_L'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Occipital_Inf_R'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Fusiform_L'          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Fusiform_R'          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Postcentral_L'       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Postcentral_R'       }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Parietal_Sup_L'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Parietal_Sup_R'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Parietal_Inf_L'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Parietal_Inf_R'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'SupraMarginal_L'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'SupraMarginal_R'     }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Angular_L'           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Angular_R'           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Precuneus_L'         }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Precuneus_R'         }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Paracentral_Lobule_L'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Paracentral_Lobule_R'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Caudate_L'           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Caudate_R'           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Putamen_L'           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Putamen_R'           }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Pallidum_L'          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Pallidum_R'          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Thalamus_L'          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Thalamus_R'          }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Heschl_L'            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Heschl_R'            }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Sup_L'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Sup_R'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Pole_Sup_L' }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Pole_Sup_R' }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Mid_L'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Mid_R'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Pole_Mid_L' }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Pole_Mid_R' }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Inf_L'      }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {'Temporal_Inf_R'      }</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>ROI</t>
   </si>
@@ -303,34 +33,331 @@
     <t>lobe</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>MTL</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>MFL</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
     <t>labels</t>
+  </si>
+  <si>
+    <t>Precentral_L</t>
+  </si>
+  <si>
+    <t>Precentral_R</t>
+  </si>
+  <si>
+    <t>Frontal_Sup_L</t>
+  </si>
+  <si>
+    <t>Frontal_Sup_R</t>
+  </si>
+  <si>
+    <t>Frontal_Sup_Orb_L</t>
+  </si>
+  <si>
+    <t>Frontal_Sup_Orb_R</t>
+  </si>
+  <si>
+    <t>Frontal_Mid_L</t>
+  </si>
+  <si>
+    <t>Frontal_Mid_R</t>
+  </si>
+  <si>
+    <t>Frontal_Mid_Orb_L</t>
+  </si>
+  <si>
+    <t>Frontal_Mid_Orb_R</t>
+  </si>
+  <si>
+    <t>Frontal_Inf_Oper_L</t>
+  </si>
+  <si>
+    <t>Frontal_Inf_Oper_R</t>
+  </si>
+  <si>
+    <t>Frontal_Inf_Tri_L</t>
+  </si>
+  <si>
+    <t>Frontal_Inf_Tri_R</t>
+  </si>
+  <si>
+    <t>Frontal_Inf_Orb_L</t>
+  </si>
+  <si>
+    <t>Frontal_Inf_Orb_R</t>
+  </si>
+  <si>
+    <t>Rolandic_Oper_L</t>
+  </si>
+  <si>
+    <t>Rolandic_Oper_R</t>
+  </si>
+  <si>
+    <t>Supp_Motor_Area_L</t>
+  </si>
+  <si>
+    <t>Supp_Motor_Area_R</t>
+  </si>
+  <si>
+    <t>Olfactory_L</t>
+  </si>
+  <si>
+    <t>Olfactory_R</t>
+  </si>
+  <si>
+    <t>Frontal_Sup_Medial_L</t>
+  </si>
+  <si>
+    <t>Frontal_Sup_Medial_R</t>
+  </si>
+  <si>
+    <t>Frontal_Med_Orb_L</t>
+  </si>
+  <si>
+    <t>Frontal_Med_Orb_R</t>
+  </si>
+  <si>
+    <t>Rectus_L</t>
+  </si>
+  <si>
+    <t>Rectus_R</t>
+  </si>
+  <si>
+    <t>Insula_L</t>
+  </si>
+  <si>
+    <t>Insula_R</t>
+  </si>
+  <si>
+    <t>Cingulum_Ant_L</t>
+  </si>
+  <si>
+    <t>Cingulum_Ant_R</t>
+  </si>
+  <si>
+    <t>Cingulum_Mid_L</t>
+  </si>
+  <si>
+    <t>Cingulum_Mid_R</t>
+  </si>
+  <si>
+    <t>Cingulum_Post_L</t>
+  </si>
+  <si>
+    <t>Cingulum_Post_R</t>
+  </si>
+  <si>
+    <t>Hippocampus_L</t>
+  </si>
+  <si>
+    <t>Hippocampus_R</t>
+  </si>
+  <si>
+    <t>ParaHippocampal_L</t>
+  </si>
+  <si>
+    <t>ParaHippocampal_R</t>
+  </si>
+  <si>
+    <t>Amygdala_L</t>
+  </si>
+  <si>
+    <t>Amygdala_R</t>
+  </si>
+  <si>
+    <t>Calcarine_L</t>
+  </si>
+  <si>
+    <t>Calcarine_R</t>
+  </si>
+  <si>
+    <t>Cuneus_L</t>
+  </si>
+  <si>
+    <t>Cuneus_R</t>
+  </si>
+  <si>
+    <t>Lingual_L</t>
+  </si>
+  <si>
+    <t>Lingual_R</t>
+  </si>
+  <si>
+    <t>Occipital_Sup_L</t>
+  </si>
+  <si>
+    <t>Occipital_Sup_R</t>
+  </si>
+  <si>
+    <t>Occipital_Mid_L</t>
+  </si>
+  <si>
+    <t>Occipital_Mid_R</t>
+  </si>
+  <si>
+    <t>Occipital_Inf_L</t>
+  </si>
+  <si>
+    <t>Occipital_Inf_R</t>
+  </si>
+  <si>
+    <t>Fusiform_L</t>
+  </si>
+  <si>
+    <t>Fusiform_R</t>
+  </si>
+  <si>
+    <t>Postcentral_L</t>
+  </si>
+  <si>
+    <t>Postcentral_R</t>
+  </si>
+  <si>
+    <t>Parietal_Sup_L</t>
+  </si>
+  <si>
+    <t>Parietal_Sup_R</t>
+  </si>
+  <si>
+    <t>Parietal_Inf_L</t>
+  </si>
+  <si>
+    <t>Parietal_Inf_R</t>
+  </si>
+  <si>
+    <t>SupraMarginal_L</t>
+  </si>
+  <si>
+    <t>SupraMarginal_R</t>
+  </si>
+  <si>
+    <t>Angular_L</t>
+  </si>
+  <si>
+    <t>Angular_R</t>
+  </si>
+  <si>
+    <t>Precuneus_L</t>
+  </si>
+  <si>
+    <t>Precuneus_R</t>
+  </si>
+  <si>
+    <t>Paracentral_Lobule_L</t>
+  </si>
+  <si>
+    <t>Paracentral_Lobule_R</t>
+  </si>
+  <si>
+    <t>Caudate_L</t>
+  </si>
+  <si>
+    <t>Caudate_R</t>
+  </si>
+  <si>
+    <t>Putamen_L</t>
+  </si>
+  <si>
+    <t>Putamen_R</t>
+  </si>
+  <si>
+    <t>Pallidum_L</t>
+  </si>
+  <si>
+    <t>Pallidum_R</t>
+  </si>
+  <si>
+    <t>Thalamus_L</t>
+  </si>
+  <si>
+    <t>Thalamus_R</t>
+  </si>
+  <si>
+    <t>Heschl_L</t>
+  </si>
+  <si>
+    <t>Heschl_R</t>
+  </si>
+  <si>
+    <t>Temporal_Sup_L</t>
+  </si>
+  <si>
+    <t>Temporal_Sup_R</t>
+  </si>
+  <si>
+    <t>Temporal_Pole_Sup_L</t>
+  </si>
+  <si>
+    <t>Temporal_Pole_Sup_R</t>
+  </si>
+  <si>
+    <t>Temporal_Mid_L</t>
+  </si>
+  <si>
+    <t>Temporal_Mid_R</t>
+  </si>
+  <si>
+    <t>Temporal_Pole_Mid_L</t>
+  </si>
+  <si>
+    <t>Temporal_Pole_Mid_R</t>
+  </si>
+  <si>
+    <t>Temporal_Inf_L</t>
+  </si>
+  <si>
+    <t>Temporal_Inf_R</t>
+  </si>
+  <si>
+    <t>L_Frontal</t>
+  </si>
+  <si>
+    <t>R_Frontal</t>
+  </si>
+  <si>
+    <t>R_FP</t>
+  </si>
+  <si>
+    <t>R_MFL</t>
+  </si>
+  <si>
+    <t>R_Insular</t>
+  </si>
+  <si>
+    <t>R_MTL</t>
+  </si>
+  <si>
+    <t>R_Occipital</t>
+  </si>
+  <si>
+    <t>R_Temporal</t>
+  </si>
+  <si>
+    <t>R_Parietal</t>
+  </si>
+  <si>
+    <t>R_BG</t>
+  </si>
+  <si>
+    <t>L_Temporal</t>
+  </si>
+  <si>
+    <t>L_BG</t>
+  </si>
+  <si>
+    <t>L_FP</t>
+  </si>
+  <si>
+    <t>L_Parietal</t>
+  </si>
+  <si>
+    <t>L_Occipital</t>
+  </si>
+  <si>
+    <t>L_MTL</t>
+  </si>
+  <si>
+    <t>L_MFL</t>
+  </si>
+  <si>
+    <t>L_Insular</t>
   </si>
 </sst>
 </file>
@@ -685,7 +712,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,1003 +722,1003 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2101</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2102</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2111</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2112</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2201</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2202</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2211</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>2212</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2301</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2302</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2311</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>2312</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>2321</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2322</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2331</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>2332</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>2401</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2402</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>2501</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>2502</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>2601</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>2602</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>2611</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>2612</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>2701</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>2702</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>3001</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>3002</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>4001</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>4002</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>4011</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>4012</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>4021</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>4022</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>4101</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>4102</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>4111</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>4112</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>4201</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>4202</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>5001</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>5002</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>5011</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>5012</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>5021</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>5022</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>5101</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>5102</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>5201</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>5202</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>5301</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>5302</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>5401</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>5402</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>6001</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>6002</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>6101</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>6102</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>6201</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>6202</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>6211</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>6212</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>6221</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>6222</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>6301</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>6302</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>6401</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>6402</v>
       </c>
       <c r="C71" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>7001</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>7002</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>7011</v>
       </c>
       <c r="C74" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>7012</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>7021</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>7022</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>7101</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>7102</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>8101</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>8102</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>8111</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>8112</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>8121</v>
       </c>
       <c r="C84" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>8122</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>8201</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>8202</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>8211</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>8212</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>8301</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>8302</v>
       </c>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
